--- a/Finanse.xlsx
+++ b/Finanse.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\en-A013-11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E22084-8F48-4A02-A0E9-C61557523CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02301E00-EF97-4D69-B27B-C8E5FB663EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="3" r:id="rId1"/>
     <sheet name="operations" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,16 +29,36 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="42">
   <si>
     <t>Bank</t>
   </si>
@@ -140,15 +161,41 @@
   <si>
     <t>Income</t>
   </si>
+  <si>
+    <t>Opening balance</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>Millenium</t>
+  </si>
+  <si>
+    <t>Other incomes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>SUMIFS(operations[Amount],operations[Bank],[@Bank], operations[Product],[@Product],operations[Month])</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +210,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,20 +235,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -206,11 +277,45 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -249,6 +354,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -267,25 +373,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -378,6 +466,42 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -399,7 +523,7 @@
     <sortCondition ref="A2:A17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BE167A2-51ED-498B-8528-63EA1A98230D}" name="Category" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7BE167A2-51ED-498B-8528-63EA1A98230D}" name="Category" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{FCE55062-5D8F-42DD-A921-FDF63872FE4E}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -407,22 +531,71 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9830CB1F-20B7-44F8-AD62-FF8AA0BFB6D4}" name="Table4" displayName="Table4" ref="A1:G207" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9830CB1F-20B7-44F8-AD62-FF8AA0BFB6D4}" name="Table4" displayName="Table4" ref="A1:G207" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:G207" xr:uid="{9830CB1F-20B7-44F8-AD62-FF8AA0BFB6D4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C514E3AB-67F2-4447-8086-DD799509FE88}" name="Amount" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0B51B951-97AB-40FE-A719-7C286848D82D}" name="Bank" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00E44FA5-EDEB-412C-A166-D4A00701A2D5}" name="Product" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5F7016C3-997E-4BF9-8147-FD0F3567B4B0}" name="Category" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8B1814A4-6B3F-4AD4-98A3-8309371C7771}" name="Type" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{C514E3AB-67F2-4447-8086-DD799509FE88}" name="Amount" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{0B51B951-97AB-40FE-A719-7C286848D82D}" name="Bank" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00E44FA5-EDEB-412C-A166-D4A00701A2D5}" name="Product" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{5F7016C3-997E-4BF9-8147-FD0F3567B4B0}" name="Category" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{8B1814A4-6B3F-4AD4-98A3-8309371C7771}" name="Type" dataDxfId="14">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table4[[#This Row],[Category]],Table2[Category],Table2[Type],"",0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9EBCCDBA-E950-45FF-8518-ABFA9C8360DC}" name="Date" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E754D223-628E-455C-865A-D6978499CEEB}" name="Month" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{9EBCCDBA-E950-45FF-8518-ABFA9C8360DC}" name="Date" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{E754D223-628E-455C-865A-D6978499CEEB}" name="Month" dataDxfId="12">
       <calculatedColumnFormula>MONTH(Table4[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C8A9933-A754-4C1B-811A-664B33EDF4D7}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{6C8A9933-A754-4C1B-811A-664B33EDF4D7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0330083B-CCF4-465E-B654-50695C04CEE0}" name="Bank" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{6D49D493-02D3-4841-9E0F-943CD1413F04}" name="Product"/>
+    <tableColumn id="3" xr3:uid="{ECACC51C-BC6B-49D9-A089-43EB21C76936}" name="Opening balance" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9B2D01D2-2F90-4608-B897-33ED9D93D235}" name="Operations" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{A547AAEC-5C66-48BD-ACBB-A21E4F18CA77}" name="Closing balance" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0" totalsRowCellStyle="Currency">
+      <calculatedColumnFormula>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6341A0F-777F-4CE9-8470-5238E29B769D}" name="Table3" displayName="Table3" ref="G1:H8" totalsRowCount="1">
+  <autoFilter ref="G1:H7" xr:uid="{E6341A0F-777F-4CE9-8470-5238E29B769D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E40893CE-C0AE-48D5-A847-F30178DAC88F}" name="Category" totalsRowLabel="Total" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0A1938E9-5585-4942-9C53-6F0E1CC89611}" name="Total" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="9" totalsRowCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B77DAA74-5840-4B0C-8383-05B389D888FF}" name="Table5" displayName="Table5" ref="J1:K11" totalsRowCount="1">
+  <autoFilter ref="J1:K10" xr:uid="{B77DAA74-5840-4B0C-8383-05B389D888FF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{87E1C362-5FBF-491D-98FC-D99C98CD0876}" name="Category" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{345697B5-0FC3-44BE-B03B-4FF5E514533C}" name="Total" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEDC9F96-7E57-478D-96CC-E86C1B4549F7}" name="Table6" displayName="Table6" ref="A13:B17" totalsRowCount="1">
+  <autoFilter ref="A13:B16" xr:uid="{BEDC9F96-7E57-478D-96CC-E86C1B4549F7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D7B22886-83CA-4629-B47E-0D01D0D69EC6}" name="Type" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{858501E2-C29C-4BB0-B3F5-7897ED764C3C}" name="Total" totalsRowFunction="count" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -726,7 +899,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD4FC0-ED61-44FB-852D-53E3AF5E902C}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6084,4 +6257,313 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4DD2E5-04A4-45E1-8F09-B1B13BA15048}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="e">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>600</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <f>Table1[[#This Row],[Operations]]+Table1[[#This Row],[Operations]]</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6">
+        <f>SUBTOTAL(103,Table3[Total])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5">
+        <f>SUBTOTAL(109,Table1[Opening balance])</f>
+        <v>2940.5</v>
+      </c>
+      <c r="D9" s="5">
+        <f>SUBTOTAL(109,Table1[Operations])</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="e">
+        <f>SUBTOTAL(109,Table1[Closing balance])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="5">
+        <f>SUBTOTAL(103,Table5[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUBTOTAL(103,Table6[Total])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>